--- a/biology/Botanique/Codonorchis/Codonorchis.xlsx
+++ b/biology/Botanique/Codonorchis/Codonorchis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Codonorchis est un genre de plantes à fleurs de la famille des Orchidaceae, de la sous-famille des Epidendroideae et de la tribu des Codonorchideae (alternativement appartement à la sous-famille des Codonorchidoideae (P.J.Cribb) M.A.Clem. &amp; D.L.Jones), poussant principalement au Brésil, dans le sud de la Cordillère des Andes ainsi que dans les îles Malouines.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La tribu des Codonorchideae a été créée en 2000 par le botaniste britannique Phillip James Cribb (d) (1946-)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La tribu des Codonorchideae a été créée en 2000 par le botaniste britannique Phillip James Cribb (d) (1946-).
 Le genre comporte deux espèces :
 Codonorchis canisioi Mansf. 1936. (Endémique du Rio Grande do Sul)
 Codonorchis lessonii Lindl. 1840.</t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) P.J. Cribb &amp; P. J. Kores, 2000, « The systematic position of Codonorchis (Orchidaceae: Orchidoideae) », Lindleyana, vol. 15, n. 3, p. 169–170.</t>
         </is>
